--- a/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Üö...[K] Ÿ óàëïê çàìëéê...</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We of Team [CS:X]Flame[CR] will\nparticipate in the hunt for [CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll work up my courage for this!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [CS:X]Пламя[CR] тоже будет\nучавствовать в поимке [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я решусь на это дело!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [CS:X]Ðìàíÿ[CR] óïçå áôäåó\nôœàâòóâïâàóû â ðïéíëå [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñåšôòû îà üóï äåìï!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/um1310.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m sorry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve been trying to gather\nnews about [CS:N]Grovyle[CR], but…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We\'ve had no success finding\nuseful information…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But we promise we\'ll keep at it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1410.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне очень жаль.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я пытался собрать хоть\nкакую-то информацию о [CS:N]Гровайле[CR], но...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам не удалось найти\nчто-либо полезное...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мы обещаем не сдаваться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå ïœåîû çàìû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðúóàìòÿ òïáñàóû öïóû\nëàëôý-óï éîõïñíàøéý ï [CS:N]Ãñïâàêìå[CR], îï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îå ôäàìïòû îàêóé\nœóï-ìéáï ðïìåèîïå...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íú ïáåþàåí îå òäàâàóûòÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1507.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learning about [CS:N]Grovyle[CR]\'s wicked\nplan has hardened our resolve.[K] He must not get\naway with this.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1609.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] is sure to strike at\n[CS:P]Crystal Cave[CR] again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We therefore decided that we\nshould go there too![K] However…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Officer [CS:N]Magnezone[CR] informed us\nthat [CS:P]Crystal Cave[CR] is now off limits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Is there a reason for that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы узнали об ужасном плане\n[CS:N]Гровайла[CR] и воспряли духом.[K] Нельзя\nпозволить ему это сделать.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гровайл определённо попытается\nснова атаковать [CS:P]Кристальную Пещеру[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И мы решили, что тоже\nотправимся туда![K] Вот только...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Офицер [CS:N]Магнезон[CR] сообщил нам,\nчто вход в [CS:P]Кристальную Пещеру[CR] запрещён.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Есть ли для этого причина?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú ôèîàìé ïá ôçàòîïí ðìàîå\n[CS:N]Ãñïâàêìà[CR] é âïòðñÿìé äôöïí.[K] Îåìûèÿ\nðïèâïìéóû åíô üóï òäåìàóû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãñïâàêì ïðñåäåìæîîï ðïðúóàåóòÿ\nòîïâà àóàëïâàóû [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É íú ñåšéìé, œóï óïçå\nïóðñàâéíòÿ óôäà![K] Âïó óïìûëï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïõéøåñ [CS:N]Íàãîåèïî[CR] òïïáþéì îàí,\nœóï âöïä â [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR] èàðñåþæî.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòóû ìé äìÿ üóïãï ðñéœéîà?</t>
   </si>
 </sst>
 </file>
@@ -103,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,11 +249,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -154,6 +277,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -436,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,17 +644,188 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6">
         <v>197</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>166</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>169</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4">
+        <v>138</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4">
+        <v>141</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>144</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6">
+        <v>147</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>113</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>116</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòóû ìé äìÿ üóïãï ðñéœéîà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [team:] is up for the\nchallenge! I\'m sure of it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команде [team:] всё по\nплечу! Я уверен в этом!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäå [team:] âòæ ðï\nðìåœô! Ÿ ôâåñåî â üóïí!</t>
   </si>
 </sst>
 </file>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -815,18 +827,43 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
         <v>119</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -199,6 +199,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëïíàîäå [team:] âòæ ðï\nðìåœô! Ÿ ôâåñåî â üóïí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/um2508.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve brought peace to the\nworld at last!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наконец-то вы смогли принести\nпокой в этот мир!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàëïîåø-óï âú òíïãìé ðñéîåòóé\nðïëïê â üóïó íéñ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï âàí!</t>
   </si>
 </sst>
 </file>
@@ -577,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,13 +882,46 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
+        <v>66</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>69</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -223,6 +223,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Òðàòéáï âàí!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Team [CS:X]Raider[CR] is a legendary\nexploration team.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us0409.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The team consists of three\nmembers: [CS:N]Gallade[CR], [CS:N]Roserade[CR], and [CS:N]Rhyperior[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They\'re said to never be denied\nfrom getting the treasures they target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Команда [CS:X]Рейдер[CR] это легендарная\nкоманда исследователей.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> В ней состоят трое: [CS:N]Галлейд[CR],\n[CS:N]Роузрэйд[CR] и [CS:N]Райпериор[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, что если они начнут\nохоту за каким-либо сокровищем, их ничто\nне остановит.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïíàîäà [CS:X]Ñåêäåñ[CR] üóï ìåãåîäàñîàÿ\nëïíàîäà éòòìåäïâàóåìåê.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Â îåê òïòóïÿó óñïå: [CS:N]Ãàììåêä[CR],\n[CS:N]Ñïôèñüêä[CR] é [CS:N]Ñàêðåñéïñ[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, œóï åòìé ïîé îàœîôó\nïöïóô èà ëàëéí-ìéáï òïëñïâéþåí, éö îéœóï\nîå ïòóàîïâéó.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P02A/us2005.ssb</t>
   </si>
 </sst>
 </file>
@@ -601,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -909,17 +942,66 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
         <v>69</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="7" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="4">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Беллспраут.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -256,6 +256,27 @@
   </si>
   <si>
     <t>SCRIPT/T01P02A/us2005.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So everything was\ntied together…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was one vast conspiracy\nby [CS:N]Darkrai[CR]...[K] It\'s quite astounding.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2209.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так значит, всё было\nвзаимосвязано...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все это - один большой заговор\n[CS:N]Даркрая[CR]...[K] Как это потрясает.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë èîàœéó, âòæ áúìï\nâèàéíïòâÿèàîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå üóï - ïäéî áïìûšïê èàãïâïñ\n[CS:N]Äàñëñàÿ[CR]...[K] Ëàë üóï ðïóñÿòàåó.</t>
   </si>
 </sst>
 </file>
@@ -634,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -991,17 +1012,49 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="7" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4">
+        <v>18</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>21</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
